--- a/src/cloud/tests/AR/AR_Argentina/ClosingARITC_Test.xlsx
+++ b/src/cloud/tests/AR/AR_Argentina/ClosingARITC_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DriveD\SVN\InternalMigration\SeleniumFramework_Cloud_ITC\src\cloud\tests\AR_Argentina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbethi\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\AR\AR_Argentina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315909D8-43FB-4F88-B15E-D6A9B8ADDCEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C8B8C6-1CA8-423A-A4B4-4FA00A765949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>appl</t>
   </si>
   <si>
-    <t>Navigate_More</t>
-  </si>
-  <si>
     <t>T01</t>
   </si>
   <si>
@@ -73,10 +70,13 @@
     <t>ITC ARG PL</t>
   </si>
   <si>
-    <t>DEC-20</t>
-  </si>
-  <si>
-    <t>FEB-21</t>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>JUL-21</t>
+  </si>
+  <si>
+    <t>MAY-21</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,10 +520,10 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="G1" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -542,36 +542,36 @@
         <v>5</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
